--- a/bdd_excel/Configurations.xlsx
+++ b/bdd_excel/Configurations.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/florianbour/Desktop/ENSEIRB/2A/SGBD/sgbd-jeux/bdd_excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucap\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C51C8A16-943E-1847-A2ED-F79D1C88531C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA679077-E663-4244-AFF8-0A6D6F87EEE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="16000" xr2:uid="{1305C029-9C52-E24C-A36C-832A39497341}"/>
+    <workbookView xWindow="20" yWindow="30" windowWidth="14400" windowHeight="7270" xr2:uid="{1305C029-9C52-E24C-A36C-832A39497341}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,12 +33,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>id_config</t>
   </si>
   <si>
     <t>nb_joueurs</t>
+  </si>
+  <si>
+    <t>id_jeu</t>
   </si>
 </sst>
 </file>
@@ -74,8 +77,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -390,863 +394,733 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C60DC547-5BEE-F14E-9841-3868405EAB23}">
-  <dimension ref="A1:B106"/>
+  <dimension ref="A1:C65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="C17">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="C18">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="C19">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="C20">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="C21">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="C22">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23">
         <v>4</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C23">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="C24">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="C26">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="C27">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="C28">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="C29">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30">
         <v>4</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C30">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="C31">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="C32">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="C34">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="C35">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="C36">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="C37">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="C38">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="C39">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B40" s="1">
+        <v>4</v>
+      </c>
+      <c r="C40">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="C41">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="C42">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+      <c r="C43">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="C44">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45">
         <v>2</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C45">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C46">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="C47">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="C48">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C49">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="C50">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="C51">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="C52">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="C53">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="C54">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="C55">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="C56">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+      <c r="C57">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+      <c r="C58">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+      <c r="C59">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="C60">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="C61">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C62">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="C63">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="C64">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A66">
-        <v>65</v>
-      </c>
-      <c r="B66">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A67">
-        <v>66</v>
-      </c>
-      <c r="B67">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A68">
-        <v>67</v>
-      </c>
-      <c r="B68">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A69">
-        <v>68</v>
-      </c>
-      <c r="B69">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A70">
-        <v>69</v>
-      </c>
-      <c r="B70">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A71">
-        <v>70</v>
-      </c>
-      <c r="B71">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A72">
-        <v>71</v>
-      </c>
-      <c r="B72">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A73">
-        <v>72</v>
-      </c>
-      <c r="B73">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A74">
-        <v>73</v>
-      </c>
-      <c r="B74">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A75">
-        <v>74</v>
-      </c>
-      <c r="B75">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A76">
-        <v>75</v>
-      </c>
-      <c r="B76">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A77">
-        <v>76</v>
-      </c>
-      <c r="B77">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A78">
-        <v>77</v>
-      </c>
-      <c r="B78">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A79">
-        <v>78</v>
-      </c>
-      <c r="B79">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A80">
-        <v>79</v>
-      </c>
-      <c r="B80">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A81">
-        <v>80</v>
-      </c>
-      <c r="B81">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A82">
-        <v>81</v>
-      </c>
-      <c r="B82">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A83">
-        <v>82</v>
-      </c>
-      <c r="B83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A84">
-        <v>83</v>
-      </c>
-      <c r="B84">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A85">
-        <v>84</v>
-      </c>
-      <c r="B85">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A86">
-        <v>85</v>
-      </c>
-      <c r="B86">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A87">
-        <v>86</v>
-      </c>
-      <c r="B87">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A88">
-        <v>87</v>
-      </c>
-      <c r="B88">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A89">
-        <v>88</v>
-      </c>
-      <c r="B89">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A90">
-        <v>89</v>
-      </c>
-      <c r="B90">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A91">
-        <v>90</v>
-      </c>
-      <c r="B91">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A92">
-        <v>91</v>
-      </c>
-      <c r="B92">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A93">
-        <v>92</v>
-      </c>
-      <c r="B93">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A94">
-        <v>93</v>
-      </c>
-      <c r="B94">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A95">
-        <v>94</v>
-      </c>
-      <c r="B95">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A96">
-        <v>95</v>
-      </c>
-      <c r="B96">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A97">
-        <v>96</v>
-      </c>
-      <c r="B97">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A98">
-        <v>97</v>
-      </c>
-      <c r="B98">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A99">
-        <v>98</v>
-      </c>
-      <c r="B99">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A100">
-        <v>99</v>
-      </c>
-      <c r="B100">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A101">
-        <v>100</v>
-      </c>
-      <c r="B101">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A102">
-        <v>101</v>
-      </c>
-      <c r="B102">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A103">
-        <v>102</v>
-      </c>
-      <c r="B103">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A104">
-        <v>103</v>
-      </c>
-      <c r="B104">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A105">
-        <v>104</v>
-      </c>
-      <c r="B105">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A106">
-        <v>105</v>
-      </c>
-      <c r="B106">
-        <v>4</v>
+        <v>4</v>
+      </c>
+      <c r="C65">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C106">
+    <sortCondition ref="C1:C106"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>